--- a/Excel/download.xlsx
+++ b/Excel/download.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>sno</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>summer</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
         <v>399</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
